--- a/Testdata/UtilityOutcome_QOL_Data_PROD.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_PROD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07ED9D8-4AD1-473B-BA7C-932C15564563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC6A875-A635-4FF7-A52A-CC6C4CD268EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
   <si>
     <t>Population</t>
   </si>
@@ -117,12 +117,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Import_Pop</t>
-  </si>
-  <si>
-    <t>ExtractionFile</t>
-  </si>
-  <si>
     <t>scenario1</t>
   </si>
   <si>
@@ -156,13 +150,34 @@
     <t>Test - Utility - Test - Utility_radio_button</t>
   </si>
   <si>
-    <t>Test - Utility - Test - Utility - Ovid search - 9/22/2022</t>
-  </si>
-  <si>
     <t>ExcelReport-Test - Utility - Test - Utility-Quality of Life-</t>
   </si>
   <si>
     <t>WordReport-Test - Utility - Test - Utility-Quality of Life-</t>
+  </si>
+  <si>
+    <t>Test - Utility - Test - Utility - 9/22/2022</t>
+  </si>
+  <si>
+    <t>Population_name</t>
+  </si>
+  <si>
+    <t>Files_to_upload</t>
+  </si>
+  <si>
+    <t>Expected_File_names</t>
+  </si>
+  <si>
+    <t>UtilityOutcome_Feature_Extraction_file_QoL_UtilityData_ECON_NoUtility.xlsx</t>
+  </si>
+  <si>
+    <t>UtilityOutcome_Feature_Extraction_file_ECON_UtilityData_QoL_NoUtility.xlsx</t>
+  </si>
+  <si>
+    <t>UtilityOutcome_Feature_Extraction_file_Both_QoL_ECON_Utility.xlsx</t>
+  </si>
+  <si>
+    <t>UtilityOutcome_Feature_Extraction_file_NegativeScenario_QoL__ECON_NoUtility.xlsx</t>
   </si>
 </sst>
 </file>
@@ -668,10 +683,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84D6FF7-55D3-4D63-AD07-5FB8EC80054E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,18 +697,18 @@
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" customWidth="1"/>
-    <col min="8" max="8" width="27.77734375" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="27.77734375" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -711,30 +726,33 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -743,52 +761,55 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -797,41 +818,44 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -840,41 +864,44 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -883,26 +910,29 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Testdata/UtilityOutcome_QOL_Data_PROD.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_PROD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC6A875-A635-4FF7-A52A-CC6C4CD268EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0717D0A0-5774-4BB0-BFC2-FF18F11EB280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="49">
   <si>
     <t>Population</t>
   </si>
@@ -54,9 +54,6 @@
     <t>ExpectedFilenames</t>
   </si>
   <si>
-    <t>Report-</t>
-  </si>
-  <si>
     <t>Quality of Life</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>QOL_and_ECON - UtilityOutcome_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-QOL_and_ECON - UtilityOutcome-Quality of Life-</t>
-  </si>
-  <si>
     <t>WordReport-QOL_and_ECON - UtilityOutcome-Quality of Life-</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>OldImportLogic_1 - TestAutomation_1_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-OldImportLogic_1 - TestAutomation_1-Quality of Life-</t>
-  </si>
-  <si>
     <t>WordReport-OldImportLogic_1 - TestAutomation_1-Quality of Life-</t>
   </si>
   <si>
@@ -150,15 +141,9 @@
     <t>Test - Utility - Test - Utility_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-Test - Utility - Test - Utility-Quality of Life-</t>
-  </si>
-  <si>
     <t>WordReport-Test - Utility - Test - Utility-Quality of Life-</t>
   </si>
   <si>
-    <t>Test - Utility - Test - Utility - 9/22/2022</t>
-  </si>
-  <si>
     <t>Population_name</t>
   </si>
   <si>
@@ -178,6 +163,27 @@
   </si>
   <si>
     <t>UtilityOutcome_Feature_Extraction_file_NegativeScenario_QoL__ECON_NoUtility.xlsx</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Test - Utility-Test - Utility-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-OldImportLogic_1-TestAutomation_1-Quality of Life-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-OldImportLogic_1-TestAutomation_1-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-QOL_and_ECON-UtilityOutcome-Quality of Life-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-QOL_and_ECON-UtilityOutcome-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-Test-Utility-Test-Utility-Quality of Life-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Test-Utility-Test-Utility-Quality of Life-2023_</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,13 +535,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -543,44 +549,44 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -592,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DACE520-ADCB-4DB7-8DF5-26FC52F0DAE9}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,13 +628,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -636,44 +642,44 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -685,14 +691,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84D6FF7-55D3-4D63-AD07-5FB8EC80054E}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
@@ -705,10 +710,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -723,19 +728,19 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
@@ -743,197 +748,197 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
       <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
         <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
         <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
         <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
         <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
         <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
         <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
